--- a/申请进度表.xlsx
+++ b/申请进度表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i332388/Documents/申请相关/application/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tian/Documents/出国相关/申请进度git/application/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
   </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>No.</t>
   </si>
@@ -120,17 +117,45 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>截止日期</t>
+    <rPh sb="0" eb="1">
+      <t>jie zhi ri qi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程语言描述</t>
+    <rPh sb="0" eb="1">
+      <t>bian cheng yu yan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>miao shu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
+    <rPh sb="0" eb="1">
+      <t>wang zhi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -160,7 +185,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -300,64 +331,87 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -643,548 +697,620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="13"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-    </row>
-    <row r="3" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="N1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="13"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12.15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12.15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C7" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="C11" s="6">
+        <v>12.15</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="C12" s="6">
+        <v>12.15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="C13" s="6">
+        <v>12.15</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6">
+        <v>12.15</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-    </row>
-    <row r="15" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-    </row>
-    <row r="16" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-    </row>
-    <row r="17" spans="1:20" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="C16" s="6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="C17" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <sortState ref="A3:U17">
+    <sortCondition sortBy="cellColor" ref="A3:A17" dxfId="1"/>
+  </sortState>
+  <mergeCells count="19">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1193,7 +1319,7 @@
           <x14:formula1>
             <xm:f>[1]属性!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:M16</xm:sqref>
+          <xm:sqref>M17:N17 M3:N15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/申请进度表.xlsx
+++ b/申请进度表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>No.</t>
   </si>
@@ -157,6 +157,7 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,33 +354,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,21 +362,40 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -700,7 +693,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,75 +702,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="20"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -875,7 +868,7 @@
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1067,10 +1060,12 @@
       <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6" t="s">
@@ -1103,7 +1098,9 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
@@ -1136,7 +1133,9 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
@@ -1169,7 +1168,9 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
@@ -1202,7 +1203,9 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
@@ -1261,7 +1264,7 @@
       <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="9">
         <v>3.1</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1287,9 +1290,21 @@
     </row>
   </sheetData>
   <sortState ref="A3:U17">
-    <sortCondition sortBy="cellColor" ref="A3:A17" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="A3:A17" dxfId="0"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A1:A2"/>
@@ -1297,18 +1312,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请进度表.xlsx
+++ b/申请进度表.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
   <si>
     <t>No.</t>
   </si>
@@ -156,13 +156,7 @@
     <t>https://apps.grad.uci.edu/ogsa/index.cfm?CFID=f21d5d4a-22ec-4a5a-ac89-64392ee29b43&amp;CFTOKEN=0&amp;jsessionid=6CBD575A76BFC49D82D5EEF5D8A946FD&amp;action=log_in</t>
   </si>
   <si>
-    <t>supporting data；honors</t>
-  </si>
-  <si>
     <t>https://gradapply.purdue.edu/account/login?r=https%3a%2f%2fgradapply.purdue.edu%2fapply%2f</t>
-  </si>
-  <si>
-    <t>Computer Science Course History document</t>
   </si>
 </sst>
 </file>
@@ -380,34 +374,34 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -713,7 +707,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,10 +716,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -734,59 +728,59 @@
       <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="18" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="20"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="14"/>
-      <c r="N2" s="17"/>
+      <c r="N2" s="19"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
@@ -856,9 +850,15 @@
         <v>27</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
@@ -889,9 +889,15 @@
         <v>27</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
@@ -923,7 +929,9 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -956,7 +964,9 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1053,7 +1063,9 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1084,9 +1096,7 @@
       <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="6" t="s">
         <v>31</v>
       </c>
@@ -1164,9 +1174,7 @@
       <c r="D13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1181,9 +1189,9 @@
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="21"/>
+      <c r="N13" s="12"/>
       <c r="O13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1222,7 +1230,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -1245,7 +1253,9 @@
         <v>31</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
         <v>31</v>
@@ -1337,11 +1347,13 @@
     <sortCondition sortBy="cellColor" ref="A3:A17" dxfId="0"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="H1:H2"/>
@@ -1349,13 +1361,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请进度表.xlsx
+++ b/申请进度表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i332388/Documents/申请相关/application/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tian/Documents/出国相关/申请进度git/application/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
   </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
   <si>
     <t>No.</t>
   </si>
@@ -126,7 +123,7 @@
     <rPh sb="0" eb="1">
       <t>jie zhi ri qi</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编程语言描述</t>
@@ -136,18 +133,18 @@
     <rPh sb="4" eb="5">
       <t>miao shu</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>网址</t>
     <rPh sb="0" eb="1">
       <t>wang zhi</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>✓</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不需要</t>
@@ -157,17 +154,24 @@
   </si>
   <si>
     <t>https://gradapply.purdue.edu/account/login?r=https%3a%2f%2fgradapply.purdue.edu%2fapply%2f</t>
+  </si>
+  <si>
+    <t>不需要</t>
+    <rPh sb="0" eb="1">
+      <t>bu xu yao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -190,20 +194,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -343,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -364,25 +362,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -390,23 +397,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
@@ -707,7 +702,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,10 +711,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -728,59 +723,59 @@
       <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="17"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="20"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="14"/>
-      <c r="N2" s="19"/>
+      <c r="N2" s="17"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
@@ -1096,20 +1091,28 @@
       <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
         <v>33</v>
@@ -1135,20 +1138,28 @@
       <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="H12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6" t="s">
         <v>33</v>
@@ -1174,22 +1185,28 @@
       <c r="D13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="12"/>
+      <c r="N13" s="11"/>
       <c r="O13" s="6" t="s">
         <v>34</v>
       </c>
@@ -1213,15 +1230,21 @@
       <c r="D14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
         <v>27</v>
@@ -1347,6 +1370,18 @@
     <sortCondition sortBy="cellColor" ref="A3:A17" dxfId="0"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A1:A2"/>
@@ -1354,20 +1389,8 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:U1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/申请进度表.xlsx
+++ b/申请进度表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
   <si>
     <t>No.</t>
   </si>
@@ -173,6 +173,7 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -366,37 +367,34 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -702,7 +700,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,75 +709,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="20"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="12"/>
       <c r="N2" s="17"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -883,7 +881,9 @@
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
@@ -893,13 +893,21 @@
       <c r="H5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="K5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="L5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1206,7 +1214,7 @@
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="11"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="6" t="s">
         <v>34</v>
       </c>
@@ -1370,11 +1378,13 @@
     <sortCondition sortBy="cellColor" ref="A3:A17" dxfId="0"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="H1:H2"/>
@@ -1382,13 +1392,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1399,7 +1407,7 @@
           <x14:formula1>
             <xm:f>[1]属性!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:N15 M17:N17</xm:sqref>
+          <xm:sqref>M17:N17 N3:N15 M3:M4 M6:M15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/申请进度表.xlsx
+++ b/申请进度表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
   <si>
     <t>No.</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Purdue (CS)</t>
-  </si>
-  <si>
-    <t>Purdue (ECE)</t>
   </si>
   <si>
     <t>john hopkins (CS)</t>
@@ -160,6 +157,10 @@
     <rPh sb="0" eb="1">
       <t>bu xu yao</t>
     </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purdue (ECE)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +701,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>10</v>
@@ -746,10 +747,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -793,32 +794,32 @@
         <v>12.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -840,22 +841,22 @@
         <v>12.15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -879,34 +880,34 @@
         <v>12.15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -928,18 +929,18 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -963,18 +964,18 @@
         <v>2.15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -998,7 +999,7 @@
         <v>2.15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1007,7 +1008,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1031,7 +1032,7 @@
         <v>3.1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -1062,18 +1063,18 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1097,33 +1098,37 @@
         <v>12.15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="K11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1144,33 +1149,37 @@
         <v>12.15</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="K12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -1185,38 +1194,38 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C13" s="6">
         <v>12.15</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
       <c r="O13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1236,32 +1245,32 @@
         <v>12.2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -1281,20 +1290,20 @@
         <v>12.3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1318,10 +1327,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1329,7 +1338,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1347,13 +1356,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="9">
         <v>3.1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1407,7 +1416,7 @@
           <x14:formula1>
             <xm:f>[1]属性!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>M17:N17 N3:N15 M3:M4 M6:M15</xm:sqref>
+          <xm:sqref>M17:N17 N3:N15 M3:M4 M6:M10 M13:M15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/申请进度表.xlsx
+++ b/申请进度表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
   <si>
     <t>No.</t>
   </si>
@@ -371,12 +371,24 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -384,18 +396,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -701,7 +701,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,75 +710,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="15"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -853,13 +853,21 @@
       <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="K4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1262,12 +1270,18 @@
       <c r="I14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="K14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6" t="s">
         <v>33</v>
@@ -1387,6 +1401,18 @@
     <sortCondition sortBy="cellColor" ref="A3:A17" dxfId="0"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A1:A2"/>
@@ -1394,18 +1420,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1416,7 +1430,7 @@
           <x14:formula1>
             <xm:f>[1]属性!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>M17:N17 N3:N15 M3:M4 M6:M10 M13:M15</xm:sqref>
+          <xm:sqref>M17:N17 N3:N15 M15 M6:M10 M13 M3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/申请进度表.xlsx
+++ b/申请进度表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
   <si>
     <t>No.</t>
   </si>
@@ -52,9 +52,6 @@
   <si>
     <t>University of Washington </t>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Columbia</t>
   </si>
   <si>
     <t>Carnegie Mellon University</t>
@@ -161,6 +158,10 @@
   </si>
   <si>
     <t>Purdue (ECE)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Columbia</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +702,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -717,40 +718,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="M1" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
@@ -794,32 +795,32 @@
         <v>12.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -835,38 +836,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>12.15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -882,40 +885,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>12.15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -937,18 +940,18 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -972,18 +975,18 @@
         <v>2.15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1001,13 +1004,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>2.15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1016,7 +1019,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1040,7 +1043,7 @@
         <v>3.1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -1048,7 +1051,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1071,18 +1076,18 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1100,43 +1105,43 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6">
         <v>12.15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1151,43 +1156,43 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6">
         <v>12.15</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -1202,38 +1207,38 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6">
         <v>12.15</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
       <c r="O13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1247,44 +1252,44 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="6">
         <v>12.2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -1298,29 +1303,41 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6">
         <v>12.3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -1335,26 +1352,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6">
         <v>1.1499999999999999</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -1370,13 +1395,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="9">
         <v>3.1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1384,7 +1409,9 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1430,7 +1457,7 @@
           <x14:formula1>
             <xm:f>[1]属性!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>M17:N17 N3:N15 M15 M6:M10 M13 M3</xm:sqref>
+          <xm:sqref>M17:N17 N3:N15 M3 M6:M10 M13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/申请进度表.xlsx
+++ b/申请进度表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="35">
   <si>
     <t>No.</t>
   </si>
@@ -334,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -343,9 +343,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,31 +359,31 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -692,7 +689,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,78 +698,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>24</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="19"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="13"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="16"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -933,11 +930,15 @@
         <v>25</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
@@ -1041,7 +1042,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="2"/>
@@ -1091,342 +1092,352 @@
       <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>12.15</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="J11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>12.15</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="6" t="s">
+      <c r="J12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>12.15</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="6" t="s">
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>12.2</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>12.3</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
     </row>
     <row r="17" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>2.15</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
+      <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A3:U17">
     <sortCondition sortBy="cellColor" ref="A3:A17" dxfId="0"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="H1:H2"/>
@@ -1434,13 +1445,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1451,7 +1460,7 @@
           <x14:formula1>
             <xm:f>[1]属性!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>M17:N17 N3:N15 M3 M6:M10 M13</xm:sqref>
+          <xm:sqref>M17:N17 N3:N15 M3 M6:M10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/申请进度表.xlsx
+++ b/申请进度表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tian/Documents/出国相关/申请进度git/application/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i332388/Documents/申请相关/application/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="35">
   <si>
     <t>No.</t>
   </si>
@@ -163,7 +166,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -188,13 +191,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -359,12 +362,24 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -374,21 +389,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
@@ -689,7 +692,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,75 +701,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="14"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="18"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -929,7 +932,9 @@
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
@@ -939,13 +944,21 @@
       <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1431,6 +1444,18 @@
     <sortCondition sortBy="cellColor" ref="A3:A17" dxfId="0"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A1:A2"/>
@@ -1438,18 +1463,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1460,7 +1473,7 @@
           <x14:formula1>
             <xm:f>[1]属性!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>M17:N17 N3:N15 M3 M6:M10</xm:sqref>
+          <xm:sqref>M17:N17 N3:N15 M3 M7:M10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/申请进度表.xlsx
+++ b/申请进度表.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="35">
   <si>
     <t>No.</t>
   </si>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>University of Michigan- Ann Arbor</t>
-  </si>
-  <si>
-    <t>University of Washington </t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Carnegie Mellon University</t>
@@ -156,6 +152,9 @@
   <si>
     <t>Columbia</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Washington </t>
   </si>
 </sst>
 </file>
@@ -168,7 +167,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,7 +690,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -785,32 +783,32 @@
         <v>12.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -826,40 +824,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>12.15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -875,40 +873,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>12.15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -930,34 +928,34 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -979,20 +977,26 @@
         <v>2.15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="K7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1008,25 +1012,35 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2">
         <v>2.15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="K8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1041,24 +1055,30 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>3.1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="K9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1080,20 +1100,26 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="K10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1109,43 +1135,43 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5">
         <v>12.15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -1160,43 +1186,43 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5">
         <v>12.15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -1211,44 +1237,44 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5">
         <v>12.15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -1262,44 +1288,44 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5">
         <v>12.2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -1313,40 +1339,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5">
         <v>12.3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -1362,40 +1388,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5">
         <v>1.1499999999999999</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -1411,13 +1437,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="8">
         <v>2.15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1426,7 +1452,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -1473,7 +1499,7 @@
           <x14:formula1>
             <xm:f>[1]属性!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>M17:N17 N3:N15 M3 M7:M10</xm:sqref>
+          <xm:sqref>M17:N17 N3:N15 M3 M7 M9:M10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/申请进度表.xlsx
+++ b/申请进度表.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
   <si>
     <t>No.</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>University of Washington </t>
+  </si>
+  <si>
+    <t>论文</t>
+  </si>
+  <si>
+    <t>question</t>
   </si>
 </sst>
 </file>
@@ -360,31 +366,31 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -690,7 +696,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,75 +705,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -979,7 +985,9 @@
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
         <v>24</v>
@@ -1063,7 +1071,9 @@
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1470,11 +1480,13 @@
     <sortCondition sortBy="cellColor" ref="A3:A17" dxfId="0"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="H1:H2"/>
@@ -1482,13 +1494,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/申请进度表.xlsx
+++ b/申请进度表.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="35">
   <si>
     <t>No.</t>
   </si>
@@ -155,12 +155,6 @@
   </si>
   <si>
     <t>University of Washington </t>
-  </si>
-  <si>
-    <t>论文</t>
-  </si>
-  <si>
-    <t>question</t>
   </si>
 </sst>
 </file>
@@ -341,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -366,12 +360,18 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -381,18 +381,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,84 +695,85 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="14"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="16"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -816,7 +816,7 @@
       <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="19"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -865,7 +865,7 @@
       <c r="M4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -914,7 +914,7 @@
       <c r="M5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -963,7 +963,7 @@
       <c r="M6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -986,13 +986,17 @@
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1005,8 +1009,10 @@
       <c r="L7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="19"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1031,9 +1037,13 @@
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1049,7 +1059,7 @@
       <c r="M8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1072,25 +1082,31 @@
         <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="19"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1112,12 +1128,18 @@
       <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1130,8 +1152,10 @@
       <c r="L10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="19"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1180,7 +1204,7 @@
       <c r="M11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O11" s="5"/>
@@ -1231,7 +1255,7 @@
       <c r="M12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O12" s="5"/>
@@ -1333,7 +1357,7 @@
       <c r="M14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="5"/>
+      <c r="N14" s="9"/>
       <c r="O14" s="5" t="s">
         <v>30</v>
       </c>
@@ -1384,7 +1408,7 @@
       <c r="M15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="5"/>
+      <c r="N15" s="9"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -1433,7 +1457,7 @@
       <c r="M16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="5"/>
+      <c r="N16" s="9"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -1458,7 +1482,9 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="5" t="s">
@@ -1466,7 +1492,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="N17" s="20"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -1480,6 +1506,18 @@
     <sortCondition sortBy="cellColor" ref="A3:A17" dxfId="0"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A1:A2"/>
@@ -1487,18 +1525,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1509,7 +1535,7 @@
           <x14:formula1>
             <xm:f>[1]属性!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>M17:N17 N3:N15 M3 M7 M9:M10</xm:sqref>
+          <xm:sqref>M17:N17 N3:N15 M3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
